--- a/src/main/resources/fixtures/appMiBancoAndroid.xlsx
+++ b/src/main/resources/fixtures/appMiBancoAndroid.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2AA794-47C6-4055-BF2E-E91809DF97AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
+    <workbookView xWindow="9390" yWindow="1320" windowWidth="19410" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>Usuario</t>
   </si>
@@ -79,15 +80,6 @@
     <t>appActivity</t>
   </si>
   <si>
-    <t>Validar el login al ingresar al app de mi banco con persona natural con DNI</t>
-  </si>
-  <si>
-    <t>Validar el login al ingresar al app de mi banco con persona natural con CE</t>
-  </si>
-  <si>
-    <t>Validar el login al ingresar al app de mi banco con persona natural con pasaporte</t>
-  </si>
-  <si>
     <t>Validar el login al ingresar al app de mi banco con persona1 mancomuno conjunto con DNI</t>
   </si>
   <si>
@@ -401,12 +393,24 @@
   </si>
   <si>
     <t>cuentaOrigen3</t>
+  </si>
+  <si>
+    <t>WEB PETCLINIC</t>
+  </si>
+  <si>
+    <t>Validar el ingreso correcto a cada menu.</t>
+  </si>
+  <si>
+    <t>Editar del primer Owner de la lista, validar el cambio y hacer rollback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar los nombres de los 10 owners. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,7 +532,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,31 +809,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -857,15 +861,15 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
+        <v>122</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D2" s="7">
         <v>85746382</v>
@@ -893,15 +897,15 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>758470004</v>
@@ -929,18 +933,18 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>102030</v>
@@ -965,15 +969,15 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>73615362</v>
@@ -1001,15 +1005,15 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>75869096</v>
@@ -1037,15 +1041,15 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>76859687</v>
@@ -1073,15 +1077,15 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>76859607</v>
@@ -1109,15 +1113,15 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>52738109</v>
@@ -1145,15 +1149,15 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>758470005</v>
@@ -1181,7 +1185,7 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -1207,7 +1211,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -1233,7 +1237,7 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1259,7 +1263,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1285,7 +1289,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1311,7 +1315,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1337,7 +1341,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1363,7 +1367,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1389,7 +1393,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1415,7 +1419,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1441,7 +1445,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1467,7 +1471,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1493,7 +1497,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1519,7 +1523,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1545,7 +1549,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1571,7 +1575,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1597,7 +1601,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1623,7 +1627,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1649,7 +1653,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1675,7 +1679,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1701,7 +1705,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1727,7 +1731,7 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1753,7 +1757,7 @@
       <c r="W32"/>
       <c r="X32"/>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1779,7 +1783,7 @@
       <c r="W33"/>
       <c r="X33"/>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1805,7 +1809,7 @@
       <c r="W34"/>
       <c r="X34"/>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1831,7 +1835,7 @@
       <c r="W35"/>
       <c r="X35"/>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1857,7 +1861,7 @@
       <c r="W36"/>
       <c r="X36"/>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1883,7 +1887,7 @@
       <c r="W37"/>
       <c r="X37"/>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1909,7 +1913,7 @@
       <c r="W38"/>
       <c r="X38"/>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1935,7 +1939,7 @@
       <c r="W39"/>
       <c r="X39"/>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1961,7 +1965,7 @@
       <c r="W40"/>
       <c r="X40"/>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1987,7 +1991,7 @@
       <c r="W41"/>
       <c r="X41"/>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -2013,7 +2017,7 @@
       <c r="W42"/>
       <c r="X42"/>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -2039,7 +2043,7 @@
       <c r="W43"/>
       <c r="X43"/>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -2065,7 +2069,7 @@
       <c r="W44"/>
       <c r="X44"/>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -2091,7 +2095,7 @@
       <c r="W45"/>
       <c r="X45"/>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -2117,7 +2121,7 @@
       <c r="W46"/>
       <c r="X46"/>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -2143,7 +2147,7 @@
       <c r="W47"/>
       <c r="X47"/>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -2169,7 +2173,7 @@
       <c r="W48"/>
       <c r="X48"/>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -2195,7 +2199,7 @@
       <c r="W49"/>
       <c r="X49"/>
     </row>
-    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -2224,7 +2228,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2232,26 +2236,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2310,54 +2314,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1">
         <v>75869096</v>
@@ -2372,15 +2376,15 @@
         <v>1020119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1">
         <v>758470004</v>
@@ -2395,15 +2399,15 @@
         <v>1020154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="7">
         <v>85746382</v>
@@ -2412,7 +2416,7 @@
         <v>102030</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1">
         <v>1020177</v>
@@ -2421,72 +2425,72 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
-    <hyperlink ref="E4" r:id="rId2" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" display="Vent@s2019" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C18" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D2" s="7">
         <v>85746382</v>
@@ -2495,10 +2499,10 @@
         <v>102030</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="9">
         <v>1</v>
@@ -2507,15 +2511,15 @@
         <v>1020211</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7">
         <v>85746382</v>
@@ -2524,10 +2528,10 @@
         <v>102030</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H3" s="9">
         <v>1</v>
@@ -2536,15 +2540,15 @@
         <v>1020234</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
         <v>85746382</v>
@@ -2553,24 +2557,24 @@
         <v>102030</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
         <v>85746382</v>
@@ -2579,10 +2583,10 @@
         <v>102030</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -2591,10 +2595,10 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
-    <hyperlink ref="E3" r:id="rId2" display="Vent@s2019"/>
-    <hyperlink ref="E4" r:id="rId3" display="Vent@s2019"/>
-    <hyperlink ref="E5" r:id="rId4" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="Vent@s2019" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="Vent@s2019" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="Vent@s2019" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -2602,69 +2606,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7">
         <v>85746382</v>
@@ -2673,13 +2677,13 @@
         <v>102030</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -2691,15 +2695,15 @@
         <v>1020581</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1">
         <v>758470004</v>
@@ -2714,7 +2718,7 @@
         <v>6018157304</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -2726,15 +2730,15 @@
         <v>1020598</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
         <v>85746382</v>
@@ -2743,13 +2747,13 @@
         <v>102030</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -2757,15 +2761,15 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
         <v>85746382</v>
@@ -2774,13 +2778,13 @@
         <v>102030</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -2791,9 +2795,9 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
-    <hyperlink ref="E4" r:id="rId2" display="Vent@s2019"/>
-    <hyperlink ref="E5" r:id="rId3" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" display="Vent@s2019" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" display="Vent@s2019" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId4"/>
@@ -2801,71 +2805,71 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>15152</v>
@@ -2877,24 +2881,24 @@
         <v>102030</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G3">
         <v>70845</v>
@@ -2914,72 +2918,72 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.26953125" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C2" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="7">
         <v>76584940</v>
@@ -2988,13 +2992,13 @@
         <v>102030</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1">
         <v>350</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1">
         <v>6018125046</v>
@@ -3003,7 +3007,7 @@
         <v>6018136277</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L2">
         <v>102192</v>
@@ -3011,7 +3015,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId2"/>
@@ -3019,50 +3023,50 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D2" s="7">
         <v>758470002</v>
@@ -3076,7 +3080,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019"/>
+    <hyperlink ref="E2" r:id="rId1" display="Vent@s2019" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
